--- a/VBA/シンプル転記/testdata/dst/dst.xlsx
+++ b/VBA/シンプル転記/testdata/dst/dst.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\VBA\シンプル転記\testdata\dst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7062DF-BD9F-4B0F-895D-EF1EDBBF79B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC271FA8-2098-407C-B05E-7AEA3E2B1D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="7440" windowWidth="5580" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="3533" windowWidth="22500" windowHeight="7155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dst" sheetId="1" r:id="rId1"/>
+    <sheet name="src2" sheetId="2" r:id="rId2"/>
+    <sheet name="dst2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +46,38 @@
   </si>
   <si>
     <t>PID1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -67,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -369,9 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -404,4 +446,127 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51768634-8ABC-458D-8C9D-8CEBD6615F63}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B4:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B42CF3-CF73-4D28-8964-E60BA201F2DB}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A6:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>